--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$APLP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$APLP.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2122238-4E7A-4E31-ADFA-5281E71B24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2F9A13-6416-4797-8136-647333D77D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="0" windowWidth="23040" windowHeight="7368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$AP$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="316">
   <si>
     <t>LA$APLP</t>
   </si>
@@ -371,9 +371,6 @@
     <t>利率區分</t>
   </si>
   <si>
-    <t>RateCode</t>
-  </si>
-  <si>
     <t>IRTMSC</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>還本週期</t>
   </si>
   <si>
-    <t>RepayFreq</t>
-  </si>
-  <si>
     <t>APLRCD</t>
   </si>
   <si>
@@ -446,9 +440,6 @@
     <t>代徵所得稅</t>
   </si>
   <si>
-    <t>IncomeTaxFlag</t>
-  </si>
-  <si>
     <t>代繳所得稅</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
     <t>攤還方式</t>
   </si>
   <si>
-    <t>AmortizedCode</t>
-  </si>
-  <si>
     <t>LMSGPT</t>
   </si>
   <si>
@@ -485,9 +473,6 @@
     <t>繳款方式</t>
   </si>
   <si>
-    <t>RepayCode</t>
-  </si>
-  <si>
     <t>LMSPBK</t>
   </si>
   <si>
@@ -551,18 +536,12 @@
     <t>繳息週期</t>
   </si>
   <si>
-    <t>PayIntFreq</t>
-  </si>
-  <si>
     <t>APLPSN</t>
   </si>
   <si>
     <t>提前清償原因</t>
   </si>
   <si>
-    <t>AdvanceCloseCode</t>
-  </si>
-  <si>
     <t>違約適用方式</t>
   </si>
   <si>
@@ -707,9 +686,6 @@
     <t>信用評分</t>
   </si>
   <si>
-    <t>CreditScore</t>
-  </si>
-  <si>
     <t>CASNUM3</t>
   </si>
   <si>
@@ -879,9 +855,6 @@
   </si>
   <si>
     <t>設定狀態</t>
-  </si>
-  <si>
-    <t>ColSetFlag</t>
   </si>
   <si>
     <t>擔保品設定記號</t>
@@ -999,6 +972,58 @@
   </si>
   <si>
     <t>CUSEMB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RateCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomeTaxFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmortizedCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayIntFreq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvanceCloseCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreditScore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColSetFlag</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1406,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AP78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1420,42 +1445,43 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="3.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="36.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="33.375" style="2" collapsed="1"/>
-    <col min="13" max="13" width="23.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="33.375" style="2" collapsed="1"/>
-    <col min="19" max="19" width="23.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="33.375" style="2" collapsed="1"/>
-    <col min="25" max="25" width="21.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="28.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="30" width="33.375" style="2" collapsed="1"/>
-    <col min="31" max="31" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="33.375" style="2" collapsed="1"/>
-    <col min="37" max="37" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="16.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="16384" width="33.375" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.375" style="2" collapsed="1"/>
+    <col min="14" max="14" width="23.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="33.375" style="2" collapsed="1"/>
+    <col min="20" max="20" width="23.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="33.375" style="2" collapsed="1"/>
+    <col min="26" max="26" width="21.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="28.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="31" width="33.375" style="2" collapsed="1"/>
+    <col min="32" max="32" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="37" width="33.375" style="2" collapsed="1"/>
+    <col min="38" max="38" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="16.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="11.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="16384" width="33.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,13 +1489,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1485,20 +1514,23 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
+      <c r="G2" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1514,53 +1546,53 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>12</v>
+      <c r="R3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1576,83 +1608,83 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="4" t="s">
+      <c r="X4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>12</v>
+      <c r="AD4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="AF4" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1668,23 +1700,23 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1700,40 +1732,43 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
+      <c r="G6" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>12</v>
+      <c r="L6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
@@ -1748,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
@@ -1768,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1787,23 +1822,23 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -1819,53 +1854,53 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="P10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="T10" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1882,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1901,53 +1936,53 @@
       <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="R12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="U12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>60</v>
       </c>
@@ -1963,23 +1998,23 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>62</v>
       </c>
@@ -1995,23 +2030,23 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
@@ -2027,23 +2062,23 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2059,23 +2094,23 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -2091,23 +2126,23 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -2123,23 +2158,23 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2155,23 +2190,23 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -2187,53 +2222,53 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="4" t="s">
+      <c r="R20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="T20" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2249,23 +2284,23 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -2281,38 +2316,41 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
+      <c r="G22" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="4" t="s">
+      <c r="L22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2328,38 +2366,41 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
+      <c r="G23" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>101</v>
       </c>
@@ -2375,38 +2416,38 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -2422,28 +2463,31 @@
       <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>12</v>
+      <c r="G25" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
@@ -2454,28 +2498,28 @@
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="L26" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -2486,29 +2530,29 @@
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="L27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2518,28 +2562,31 @@
       <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>12</v>
+      <c r="G28" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -2550,75 +2597,78 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="K30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="L30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="Q30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O30" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -2629,124 +2679,133 @@
       <c r="E31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="L32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -2757,122 +2816,128 @@
       <c r="E35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="K37" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="L37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P37" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="Q37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="3">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="W37" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>4</v>
@@ -2883,43 +2948,46 @@
       <c r="E38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="J38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M38" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="4" t="s">
+      <c r="O38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O38" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="P38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>97</v>
@@ -2930,103 +2998,103 @@
       <c r="E39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="J39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z39" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF39" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE39" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF39" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="AG39" s="4" t="s">
         <v>160</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI39" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM39" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="AL39" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="AM39" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO39" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>4</v>
@@ -3037,28 +3105,28 @@
       <c r="E40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -3069,28 +3137,28 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>4</v>
@@ -3102,15 +3170,15 @@
         <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -3122,15 +3190,15 @@
         <v>3</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="44" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="B44" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>4</v>
@@ -3142,15 +3210,15 @@
         <v>3</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -3162,15 +3230,15 @@
         <v>5</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
@@ -3182,15 +3250,15 @@
         <v>5</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -3202,15 +3270,15 @@
         <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>97</v>
@@ -3221,28 +3289,28 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>97</v>
@@ -3253,28 +3321,28 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H49" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>97</v>
@@ -3285,28 +3353,28 @@
       <c r="E50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H50" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>97</v>
@@ -3317,28 +3385,28 @@
       <c r="E51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>97</v>
@@ -3349,28 +3417,28 @@
       <c r="E52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H52" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
@@ -3382,15 +3450,15 @@
         <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>4</v>
@@ -3401,73 +3469,73 @@
       <c r="E54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="U54" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="V54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="W54" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="X54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB54" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="O54" s="4" t="s">
+      <c r="AC54" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="P54" s="4" t="s">
+      <c r="AD54" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="U54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="V54" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="W54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA54" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB54" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -3478,25 +3546,25 @@
       <c r="E55" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H55" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>304</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>4</v>
@@ -3507,25 +3575,25 @@
       <c r="E56" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H56" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>307</v>
+        <v>1</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>97</v>
@@ -3536,28 +3604,28 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H57" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>217</v>
+        <v>1</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>97</v>
@@ -3568,43 +3636,43 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H58" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M58" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="4" t="s">
-        <v>220</v>
-      </c>
       <c r="P58" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="Q58" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -3615,28 +3683,28 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H59" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>4</v>
@@ -3647,107 +3715,107 @@
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q60" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="C62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="K62" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="3">
-        <v>5</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="3">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
@@ -3759,15 +3827,15 @@
         <v>5</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>97</v>
@@ -3778,28 +3846,28 @@
       <c r="E64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H64" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>97</v>
@@ -3810,28 +3878,28 @@
       <c r="E65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H65" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>242</v>
+        <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>97</v>
@@ -3842,28 +3910,28 @@
       <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H66" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>97</v>
@@ -3874,28 +3942,28 @@
       <c r="E67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H67" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>248</v>
+        <v>1</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>97</v>
@@ -3906,73 +3974,73 @@
       <c r="E68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="H68" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T68" s="4" t="s">
+      <c r="U68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U68" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="V68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="W68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="W68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z68" s="4" t="s">
+      <c r="AA68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA68" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="AB68" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="AC68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD68" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>97</v>
@@ -3983,73 +4051,73 @@
       <c r="E69" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="W69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB69" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC69" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD69" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="N69" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P69" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="V69" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="W69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB69" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC69" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>97</v>
@@ -4060,73 +4128,73 @@
       <c r="E70" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="H70" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="I70" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>251</v>
+      <c r="K70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N70" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="O70" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="P70" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S70" s="4" t="s">
+      <c r="Q70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T70" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T70" s="4" t="s">
+      <c r="U70" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U70" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="V70" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="W70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y70" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="W70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z70" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Z70" s="4" t="s">
+      <c r="AA70" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AA70" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="AB70" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="AC70" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>97</v>
@@ -4138,15 +4206,15 @@
         <v>5</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>97</v>
@@ -4158,15 +4226,15 @@
         <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>97</v>
@@ -4177,58 +4245,58 @@
       <c r="E73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="H73" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S73" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="T73" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="U73" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="W73" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>4</v>
@@ -4239,28 +4307,28 @@
       <c r="E74" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H74" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>97</v>
@@ -4271,28 +4339,28 @@
       <c r="E75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H75" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K75" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L75" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>97</v>
@@ -4303,28 +4371,28 @@
       <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="H76" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>277</v>
+        <v>1</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -4335,25 +4403,28 @@
       <c r="E77" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>12</v>
+      <c r="G77" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>281</v>
+        <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>11</v>
@@ -4369,7 +4440,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
